--- a/Atlas application All heatmaps ver2/data/dataWomen.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataWomen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au281223\Dropbox\Postdoc\ASD\Family history atlas\shiny\Atlas application All heatmaps\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF90F0C-E078-574C-8F82-CAE82A47CFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="13392" windowHeight="5712"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_cox_all_women" sheetId="1" r:id="rId1"/>
@@ -507,8 +508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1125,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1159,6 +1177,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1334,16 +1369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1372,22 +1407,22 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>157</v>
-      </c>
-      <c r="M1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" t="s">
-        <v>160</v>
       </c>
       <c r="P1" t="s">
         <v>9</v>
@@ -1552,7 +1587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69">
       <c r="A2" s="1">
         <v>43515</v>
       </c>
@@ -1563,22 +1598,22 @@
         <v>63</v>
       </c>
       <c r="J2">
+        <v>2.0588818</v>
+      </c>
+      <c r="K2">
+        <v>5.8098233999999999E-2</v>
+      </c>
+      <c r="L2">
+        <v>358</v>
+      </c>
+      <c r="M2">
         <v>1.8718256</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.1013264</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>107</v>
-      </c>
-      <c r="M2">
-        <v>2.0588818</v>
-      </c>
-      <c r="N2">
-        <v>5.8098233999999999E-2</v>
-      </c>
-      <c r="O2">
-        <v>358</v>
       </c>
       <c r="P2">
         <v>1.3220726</v>
@@ -1680,7 +1715,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69">
       <c r="A3" s="1">
         <v>43515</v>
       </c>
@@ -1691,22 +1726,22 @@
         <v>64</v>
       </c>
       <c r="J3">
+        <v>1.2505864</v>
+      </c>
+      <c r="K3">
+        <v>4.7964826000000002E-2</v>
+      </c>
+      <c r="L3">
+        <v>604</v>
+      </c>
+      <c r="M3">
         <v>1.0097929000000001</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>5.5650324000000001E-2</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>434</v>
-      </c>
-      <c r="M3">
-        <v>1.2505864</v>
-      </c>
-      <c r="N3">
-        <v>4.7964826000000002E-2</v>
-      </c>
-      <c r="O3">
-        <v>604</v>
       </c>
       <c r="P3">
         <v>0.46374795000000002</v>
@@ -1871,7 +1906,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69">
       <c r="A4" s="1">
         <v>43515</v>
       </c>
@@ -1890,13 +1925,13 @@
       <c r="F4">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="J4">
         <v>1.4035757</v>
       </c>
-      <c r="N4">
+      <c r="K4">
         <v>0.35423811999999999</v>
       </c>
-      <c r="O4">
+      <c r="L4">
         <v>8</v>
       </c>
       <c r="Y4">
@@ -2026,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69">
       <c r="A5" s="1">
         <v>43515</v>
       </c>
@@ -2046,22 +2081,22 @@
         <v>78</v>
       </c>
       <c r="J5">
+        <v>7.0434511000000005E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.23753874</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
+      </c>
+      <c r="M5">
         <v>0.30790156000000002</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>0.30267480000000002</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>11</v>
-      </c>
-      <c r="M5">
-        <v>7.0434511000000005E-2</v>
-      </c>
-      <c r="N5">
-        <v>0.23753874</v>
-      </c>
-      <c r="O5">
-        <v>19</v>
       </c>
       <c r="P5">
         <v>0.31482768</v>
@@ -2226,7 +2261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69">
       <c r="A6" s="1">
         <v>43515</v>
       </c>
@@ -2246,22 +2281,22 @@
         <v>290</v>
       </c>
       <c r="J6">
+        <v>0.73099040999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.19786786000000001</v>
+      </c>
+      <c r="L6">
+        <v>26</v>
+      </c>
+      <c r="M6">
         <v>0.49599490000000002</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>0.22510343999999999</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>20</v>
-      </c>
-      <c r="M6">
-        <v>0.73099040999999998</v>
-      </c>
-      <c r="N6">
-        <v>0.19786786000000001</v>
-      </c>
-      <c r="O6">
-        <v>26</v>
       </c>
       <c r="P6">
         <v>0.50860691000000002</v>
@@ -2426,7 +2461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69">
       <c r="A7" s="1">
         <v>43515</v>
       </c>
@@ -2446,22 +2481,22 @@
         <v>147</v>
       </c>
       <c r="J7">
+        <v>0.55560224999999996</v>
+      </c>
+      <c r="K7">
+        <v>0.30233839000000001</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
         <v>0.58051436999999995</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>0.31748593000000003</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>10</v>
-      </c>
-      <c r="M7">
-        <v>0.55560224999999996</v>
-      </c>
-      <c r="N7">
-        <v>0.30233839000000001</v>
-      </c>
-      <c r="O7">
-        <v>11</v>
       </c>
       <c r="P7">
         <v>0.41598129</v>
@@ -2626,7 +2661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69">
       <c r="A8" s="1">
         <v>43515</v>
       </c>
@@ -2646,22 +2681,22 @@
         <v>402</v>
       </c>
       <c r="J8">
+        <v>1.1732775</v>
+      </c>
+      <c r="K8">
+        <v>0.1242229</v>
+      </c>
+      <c r="L8">
+        <v>72</v>
+      </c>
+      <c r="M8">
         <v>0.93053156000000004</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>9.9892795000000006E-2</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>112</v>
-      </c>
-      <c r="M8">
-        <v>1.1732775</v>
-      </c>
-      <c r="N8">
-        <v>0.1242229</v>
-      </c>
-      <c r="O8">
-        <v>72</v>
       </c>
       <c r="P8">
         <v>0.26384153999999999</v>
@@ -2826,7 +2861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69">
       <c r="A9" s="1">
         <v>43515</v>
       </c>
@@ -2845,13 +2880,13 @@
       <c r="F9">
         <v>57</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>1.2376864999999999</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>0.31874301999999999</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>10</v>
       </c>
       <c r="S9">
@@ -2972,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69">
       <c r="A10" s="1">
         <v>43515</v>
       </c>
@@ -2992,22 +3027,22 @@
         <v>361</v>
       </c>
       <c r="J10">
+        <v>1.1986969999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.12843525</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
         <v>0.85148108</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>0.10633362</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>98</v>
-      </c>
-      <c r="M10">
-        <v>1.1986969999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.12843525</v>
-      </c>
-      <c r="O10">
-        <v>67</v>
       </c>
       <c r="P10">
         <v>0.25850672000000002</v>
@@ -3172,7 +3207,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -3192,22 +3227,22 @@
         <v>807</v>
       </c>
       <c r="J11">
+        <v>0.83404613000000005</v>
+      </c>
+      <c r="K11">
+        <v>9.3527734000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>127</v>
+      </c>
+      <c r="M11">
         <v>0.77600068</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>7.7250868E-2</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>193</v>
-      </c>
-      <c r="M11">
-        <v>0.83404613000000005</v>
-      </c>
-      <c r="N11">
-        <v>9.3527734000000001E-2</v>
-      </c>
-      <c r="O11">
-        <v>127</v>
       </c>
       <c r="P11">
         <v>0.33946844999999998</v>
@@ -3372,7 +3407,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69">
       <c r="A12" s="1">
         <v>43515</v>
       </c>
@@ -3392,22 +3427,22 @@
         <v>132</v>
       </c>
       <c r="J12">
+        <v>1.0402317999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.21360454000000001</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
         <v>0.64154738</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>0.21885657</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>23</v>
-      </c>
-      <c r="M12">
-        <v>1.0402317999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.21360454000000001</v>
-      </c>
-      <c r="O12">
-        <v>22</v>
       </c>
       <c r="P12">
         <v>0.18024482999999999</v>
@@ -3482,7 +3517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69">
       <c r="A13" s="1">
         <v>43515</v>
       </c>
@@ -3502,22 +3537,22 @@
         <v>198</v>
       </c>
       <c r="J13">
+        <v>1.2165558000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.29027265000000002</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
         <v>0.53498237999999998</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>0.14515047</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>49</v>
-      </c>
-      <c r="M13">
-        <v>1.2165558000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.29027265000000002</v>
-      </c>
-      <c r="O13">
-        <v>12</v>
       </c>
       <c r="P13">
         <v>0.18753793999999999</v>
@@ -3619,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69">
       <c r="A14" s="1">
         <v>43515</v>
       </c>
@@ -3638,13 +3673,13 @@
       <c r="F14">
         <v>65</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>0.31801637999999999</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>0.25956955999999998</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>15</v>
       </c>
       <c r="S14">
@@ -3702,7 +3737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69">
       <c r="A15" s="1">
         <v>43515</v>
       </c>
@@ -3722,22 +3757,22 @@
         <v>248</v>
       </c>
       <c r="J15">
+        <v>0.64277976999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.21412665</v>
+      </c>
+      <c r="L15">
+        <v>23</v>
+      </c>
+      <c r="M15">
         <v>0.81717819000000003</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>0.13095707000000001</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>64</v>
-      </c>
-      <c r="M15">
-        <v>0.64277976999999997</v>
-      </c>
-      <c r="N15">
-        <v>0.21412665</v>
-      </c>
-      <c r="O15">
-        <v>23</v>
       </c>
       <c r="P15">
         <v>0.14142052999999999</v>
@@ -3902,7 +3937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69">
       <c r="A16" s="1">
         <v>43515</v>
       </c>
@@ -3922,22 +3957,22 @@
         <v>260</v>
       </c>
       <c r="J16">
+        <v>1.0613980000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.14007865999999999</v>
+      </c>
+      <c r="L16">
+        <v>54</v>
+      </c>
+      <c r="M16">
         <v>0.84465855000000001</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>0.21049794999999999</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>23</v>
-      </c>
-      <c r="M16">
-        <v>1.0613980000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.14007865999999999</v>
-      </c>
-      <c r="O16">
-        <v>54</v>
       </c>
       <c r="P16">
         <v>0.67228979</v>
@@ -4102,7 +4137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69">
       <c r="A17" s="1">
         <v>43515</v>
       </c>
@@ -4122,22 +4157,22 @@
         <v>308</v>
       </c>
       <c r="J17">
+        <v>1.3176323000000001</v>
+      </c>
+      <c r="K17">
+        <v>8.6225337999999999E-2</v>
+      </c>
+      <c r="L17">
+        <v>146</v>
+      </c>
+      <c r="M17">
         <v>1.34734</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>0.13425651</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>58</v>
-      </c>
-      <c r="M17">
-        <v>1.3176323000000001</v>
-      </c>
-      <c r="N17">
-        <v>8.6225337999999999E-2</v>
-      </c>
-      <c r="O17">
-        <v>146</v>
       </c>
       <c r="P17">
         <v>0.41027543</v>
@@ -4257,7 +4292,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69">
       <c r="A18" s="1">
         <v>43515</v>
       </c>
@@ -4277,22 +4312,22 @@
         <v>607</v>
       </c>
       <c r="J18">
+        <v>1.1141953</v>
+      </c>
+      <c r="K18">
+        <v>6.1436161000000003E-2</v>
+      </c>
+      <c r="L18">
+        <v>309</v>
+      </c>
+      <c r="M18">
         <v>1.1772023</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>8.3583726999999997E-2</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>156</v>
-      </c>
-      <c r="M18">
-        <v>1.1141953</v>
-      </c>
-      <c r="N18">
-        <v>6.1436161000000003E-2</v>
-      </c>
-      <c r="O18">
-        <v>309</v>
       </c>
       <c r="P18">
         <v>0.45534891</v>
@@ -4439,7 +4474,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69">
       <c r="A19" s="1">
         <v>43515</v>
       </c>
@@ -4459,22 +4494,22 @@
         <v>471</v>
       </c>
       <c r="J19">
+        <v>1.0471102000000001</v>
+      </c>
+      <c r="K19">
+        <v>7.3836639999999995E-2</v>
+      </c>
+      <c r="L19">
+        <v>205</v>
+      </c>
+      <c r="M19">
         <v>1.2866069</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>0.10298343</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>100</v>
-      </c>
-      <c r="M19">
-        <v>1.0471102000000001</v>
-      </c>
-      <c r="N19">
-        <v>7.3836639999999995E-2</v>
-      </c>
-      <c r="O19">
-        <v>205</v>
       </c>
       <c r="P19">
         <v>0.64311432999999996</v>
@@ -4576,7 +4611,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69">
       <c r="A20" s="1">
         <v>43515</v>
       </c>
@@ -4596,22 +4631,22 @@
         <v>48</v>
       </c>
       <c r="J20">
+        <v>1.2067311000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.18174201000000001</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
         <v>1.2705964000000001</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>0.35639140000000002</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>8</v>
-      </c>
-      <c r="M20">
-        <v>1.2067311000000001</v>
-      </c>
-      <c r="N20">
-        <v>0.18174201000000001</v>
-      </c>
-      <c r="O20">
-        <v>32</v>
       </c>
       <c r="BI20">
         <v>0.56269597999999998</v>
@@ -4641,7 +4676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69">
       <c r="A21" s="1">
         <v>43515</v>
       </c>
@@ -4661,22 +4696,22 @@
         <v>117</v>
       </c>
       <c r="J21">
+        <v>0.45036535999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.26783916000000002</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
         <v>0.84927154000000005</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>0.20596944</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>24</v>
-      </c>
-      <c r="M21">
-        <v>0.45036535999999999</v>
-      </c>
-      <c r="N21">
-        <v>0.26783916000000002</v>
-      </c>
-      <c r="O21">
-        <v>16</v>
       </c>
       <c r="P21">
         <v>0.15047787000000001</v>
@@ -4832,7 +4867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69">
       <c r="A22" s="1">
         <v>43515</v>
       </c>
@@ -4852,22 +4887,22 @@
         <v>32</v>
       </c>
       <c r="J22">
+        <v>0.33354756000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.14800540000000001</v>
+      </c>
+      <c r="L22">
+        <v>47</v>
+      </c>
+      <c r="M22">
         <v>0.59711581000000002</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>0.12363304999999999</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>68</v>
-      </c>
-      <c r="M22">
-        <v>0.33354756000000002</v>
-      </c>
-      <c r="N22">
-        <v>0.14800540000000001</v>
-      </c>
-      <c r="O22">
-        <v>47</v>
       </c>
       <c r="P22">
         <v>0.25760170999999998</v>
@@ -5032,7 +5067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69">
       <c r="A23" s="1">
         <v>43515</v>
       </c>
@@ -5052,22 +5087,22 @@
         <v>26</v>
       </c>
       <c r="J23">
+        <v>0.50778495999999995</v>
+      </c>
+      <c r="K23">
+        <v>0.16204025999999999</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
         <v>0.50856703999999997</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>0.15927684</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>41</v>
-      </c>
-      <c r="M23">
-        <v>0.50778495999999995</v>
-      </c>
-      <c r="N23">
-        <v>0.16204025999999999</v>
-      </c>
-      <c r="O23">
-        <v>39</v>
       </c>
       <c r="P23">
         <v>0.32072589000000001</v>
@@ -5232,7 +5267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:69">
       <c r="A24" s="1">
         <v>43515</v>
       </c>
@@ -5252,22 +5287,22 @@
         <v>12</v>
       </c>
       <c r="J24">
+        <v>0.41920981000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.22466421</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
         <v>0.19965667000000001</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>0.25079358000000002</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>16</v>
-      </c>
-      <c r="M24">
-        <v>0.41920981000000002</v>
-      </c>
-      <c r="N24">
-        <v>0.22466421</v>
-      </c>
-      <c r="O24">
-        <v>20</v>
       </c>
       <c r="P24">
         <v>0.28972315999999998</v>
@@ -5414,7 +5449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69">
       <c r="A25" s="1">
         <v>43515</v>
       </c>
@@ -5433,13 +5468,13 @@
       <c r="F25">
         <v>21</v>
       </c>
-      <c r="M25">
+      <c r="J25">
         <v>1.0726415</v>
       </c>
-      <c r="N25">
+      <c r="K25">
         <v>0.41127830999999998</v>
       </c>
-      <c r="O25">
+      <c r="L25">
         <v>6</v>
       </c>
       <c r="AB25">
@@ -5569,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69">
       <c r="A26" s="1">
         <v>43515</v>
       </c>
@@ -5589,22 +5624,22 @@
         <v>9</v>
       </c>
       <c r="J26">
+        <v>-0.35414468999999998</v>
+      </c>
+      <c r="K26">
+        <v>0.35512688999999997</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
         <v>0.68343841999999999</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>0.18136190999999999</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>31</v>
-      </c>
-      <c r="M26">
-        <v>-0.35414468999999998</v>
-      </c>
-      <c r="N26">
-        <v>0.35512688999999997</v>
-      </c>
-      <c r="O26">
-        <v>8</v>
       </c>
       <c r="P26">
         <v>9.6389554000000002E-2</v>
@@ -5688,7 +5723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69">
       <c r="A27" s="1">
         <v>43515</v>
       </c>
@@ -5708,22 +5743,22 @@
         <v>183</v>
       </c>
       <c r="J27">
+        <v>0.49428681000000002</v>
+      </c>
+      <c r="K27">
+        <v>0.16817990999999999</v>
+      </c>
+      <c r="L27">
+        <v>37</v>
+      </c>
+      <c r="M27">
         <v>0.31895806999999998</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>0.10673204</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>103</v>
-      </c>
-      <c r="M27">
-        <v>0.49428681000000002</v>
-      </c>
-      <c r="N27">
-        <v>0.16817990999999999</v>
-      </c>
-      <c r="O27">
-        <v>37</v>
       </c>
       <c r="P27">
         <v>8.5775077000000005E-2</v>
@@ -5888,7 +5923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69">
       <c r="A28" s="1">
         <v>43515</v>
       </c>
@@ -5907,13 +5942,13 @@
       <c r="F28">
         <v>45</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>1.075741E-2</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>0.21208494999999999</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>24</v>
       </c>
       <c r="P28">
@@ -6079,7 +6114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69">
       <c r="A29" s="1">
         <v>43515</v>
       </c>
@@ -6098,13 +6133,13 @@
       <c r="F29">
         <v>24</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>-0.13775272999999999</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>0.44844182999999999</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>5</v>
       </c>
       <c r="P29">
@@ -6270,7 +6305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69">
       <c r="A30" s="1">
         <v>43516</v>
       </c>
@@ -6289,13 +6324,13 @@
       <c r="F30">
         <v>21</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>3.5732462999999999E-2</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>0.23317808000000001</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>20</v>
       </c>
       <c r="P30">
@@ -6389,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69">
       <c r="A31" s="1">
         <v>43516</v>
       </c>
@@ -6408,13 +6443,13 @@
       <c r="F31">
         <v>18</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>2.8207078999999999E-2</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>0.26094835999999999</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>16</v>
       </c>
       <c r="P31">
@@ -6508,7 +6543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69">
       <c r="A32" s="1">
         <v>43516</v>
       </c>
@@ -6528,22 +6563,22 @@
         <v>191</v>
       </c>
       <c r="J32">
+        <v>0.18818365000000001</v>
+      </c>
+      <c r="K32">
+        <v>5.4630060000000001E-2</v>
+      </c>
+      <c r="L32">
+        <v>398</v>
+      </c>
+      <c r="M32">
         <v>7.5409345000000003E-2</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>6.1066600999999998E-2</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>303</v>
-      </c>
-      <c r="M32">
-        <v>0.18818365000000001</v>
-      </c>
-      <c r="N32">
-        <v>5.4630060000000001E-2</v>
-      </c>
-      <c r="O32">
-        <v>398</v>
       </c>
       <c r="P32">
         <v>0.13552579000000001</v>
@@ -6708,7 +6743,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69">
       <c r="A33" s="1">
         <v>43516</v>
       </c>
@@ -6728,22 +6763,22 @@
         <v>14</v>
       </c>
       <c r="J33">
+        <v>0.43180338000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.25092017999999999</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
         <v>-7.0305645E-2</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>0.31648316999999998</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>10</v>
-      </c>
-      <c r="M33">
-        <v>0.43180338000000001</v>
-      </c>
-      <c r="N33">
-        <v>0.25092017999999999</v>
-      </c>
-      <c r="O33">
-        <v>16</v>
       </c>
       <c r="AB33">
         <v>0.40067226</v>
@@ -6836,7 +6871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69">
       <c r="A34" s="1">
         <v>43516</v>
       </c>
@@ -6856,22 +6891,22 @@
         <v>6</v>
       </c>
       <c r="J34">
+        <v>0.39511022000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.24274746</v>
+      </c>
+      <c r="L34">
+        <v>17</v>
+      </c>
+      <c r="M34">
         <v>-0.30288672</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>0.35433461999999999</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>8</v>
-      </c>
-      <c r="M34">
-        <v>0.39511022000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.24274746</v>
-      </c>
-      <c r="O34">
-        <v>17</v>
       </c>
       <c r="Y34">
         <v>0.59349436</v>
@@ -6991,7 +7026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69">
       <c r="A35" s="1">
         <v>43516</v>
       </c>
@@ -7011,22 +7046,22 @@
         <v>33</v>
       </c>
       <c r="J35">
+        <v>-0.15741208000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.18080087</v>
+      </c>
+      <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="M35">
         <v>-0.16322592</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.16571437</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>37</v>
-      </c>
-      <c r="M35">
-        <v>-0.15741208000000001</v>
-      </c>
-      <c r="N35">
-        <v>0.18080087</v>
-      </c>
-      <c r="O35">
-        <v>32</v>
       </c>
       <c r="P35">
         <v>0.11335354</v>
@@ -7191,7 +7226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69">
       <c r="A36" s="1">
         <v>43516</v>
       </c>
@@ -7211,22 +7246,22 @@
         <v>20</v>
       </c>
       <c r="J36">
+        <v>7.6168879999999994E-2</v>
+      </c>
+      <c r="K36">
+        <v>0.13193827999999999</v>
+      </c>
+      <c r="L36">
+        <v>61</v>
+      </c>
+      <c r="M36">
         <v>9.4539598000000002E-2</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>0.12663071000000001</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>65</v>
-      </c>
-      <c r="M36">
-        <v>7.6168879999999994E-2</v>
-      </c>
-      <c r="N36">
-        <v>0.13193827999999999</v>
-      </c>
-      <c r="O36">
-        <v>61</v>
       </c>
       <c r="P36">
         <v>0.24999778</v>
@@ -7391,7 +7426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69">
       <c r="A37" s="1">
         <v>43516</v>
       </c>
@@ -7402,22 +7437,22 @@
         <v>98</v>
       </c>
       <c r="J37">
+        <v>0.34105054000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.27755085000000002</v>
+      </c>
+      <c r="L37">
+        <v>13</v>
+      </c>
+      <c r="M37">
         <v>0.16924085</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>0.33454551999999999</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>9</v>
-      </c>
-      <c r="M37">
-        <v>0.34105054000000001</v>
-      </c>
-      <c r="N37">
-        <v>0.27755085000000002</v>
-      </c>
-      <c r="O37">
-        <v>13</v>
       </c>
       <c r="V37">
         <v>0.86386072999999997</v>
@@ -7555,7 +7590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69">
       <c r="A38" s="1">
         <v>43516</v>
       </c>
@@ -7566,22 +7601,22 @@
         <v>99</v>
       </c>
       <c r="J38">
+        <v>0.18168917000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.28928196</v>
+      </c>
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="M38">
         <v>0.12057263</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>0.35474926000000001</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>8</v>
-      </c>
-      <c r="M38">
-        <v>0.18168917000000001</v>
-      </c>
-      <c r="N38">
-        <v>0.28928196</v>
-      </c>
-      <c r="O38">
-        <v>12</v>
       </c>
       <c r="AB38">
         <v>0.37891796</v>
@@ -7665,7 +7700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69">
       <c r="A39" s="1">
         <v>43516</v>
       </c>
@@ -7685,22 +7720,22 @@
         <v>7</v>
       </c>
       <c r="J39">
+        <v>0.22776297000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.16588928999999999</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
         <v>0.31561545000000002</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>0.2093834</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>23</v>
-      </c>
-      <c r="M39">
-        <v>0.22776297000000001</v>
-      </c>
-      <c r="N39">
-        <v>0.16588928999999999</v>
-      </c>
-      <c r="O39">
-        <v>38</v>
       </c>
       <c r="P39">
         <v>0.56052827999999999</v>
@@ -7856,7 +7891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69">
       <c r="A40" s="1">
         <v>43516</v>
       </c>
@@ -7876,22 +7911,22 @@
         <v>11</v>
       </c>
       <c r="J40">
+        <v>5.0316587000000003E-2</v>
+      </c>
+      <c r="K40">
+        <v>8.3975411999999999E-2</v>
+      </c>
+      <c r="L40">
+        <v>151</v>
+      </c>
+      <c r="M40">
         <v>0.10578857999999999</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>0.33384803000000002</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>9</v>
-      </c>
-      <c r="M40">
-        <v>5.0316587000000003E-2</v>
-      </c>
-      <c r="N40">
-        <v>8.3975411999999999E-2</v>
-      </c>
-      <c r="O40">
-        <v>151</v>
       </c>
       <c r="P40">
         <v>0.69811654000000001</v>
@@ -8047,7 +8082,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69">
       <c r="A41" s="1">
         <v>43516</v>
       </c>
@@ -8067,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="J41">
+        <v>-2.5258197E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.23664278</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
         <v>0.29057126999999999</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>0.23653635000000001</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>18</v>
-      </c>
-      <c r="M41">
-        <v>-2.5258197E-2</v>
-      </c>
-      <c r="N41">
-        <v>0.23664278</v>
-      </c>
-      <c r="O41">
-        <v>19</v>
       </c>
       <c r="S41">
         <v>0.16121310999999999</v>
@@ -8238,7 +8273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:69">
       <c r="A42" s="1">
         <v>43516</v>
       </c>
@@ -8258,22 +8293,22 @@
         <v>93</v>
       </c>
       <c r="J42">
+        <v>0.19883859000000001</v>
+      </c>
+      <c r="K42">
+        <v>7.9809166000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>172</v>
+      </c>
+      <c r="M42">
         <v>0.13959488</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>7.9138994000000004E-2</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>173</v>
-      </c>
-      <c r="M42">
-        <v>0.19883859000000001</v>
-      </c>
-      <c r="N42">
-        <v>7.9809166000000001E-2</v>
-      </c>
-      <c r="O42">
-        <v>172</v>
       </c>
       <c r="P42">
         <v>-3.0359906999999998E-2</v>
@@ -8438,7 +8473,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69">
       <c r="A43" s="1">
         <v>43516</v>
       </c>
@@ -8458,22 +8493,22 @@
         <v>22</v>
       </c>
       <c r="J43">
+        <v>-0.40517526999999998</v>
+      </c>
+      <c r="K43">
+        <v>0.35445690000000002</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43">
         <v>-0.12803519999999999</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>0.25019637</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>16</v>
-      </c>
-      <c r="M43">
-        <v>-0.40517526999999998</v>
-      </c>
-      <c r="N43">
-        <v>0.35445690000000002</v>
-      </c>
-      <c r="O43">
-        <v>8</v>
       </c>
       <c r="S43">
         <v>1.1477025E-2</v>
@@ -8611,7 +8646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:69">
       <c r="A44" s="1">
         <v>43516</v>
       </c>
@@ -8631,22 +8666,22 @@
         <v>57</v>
       </c>
       <c r="J44">
+        <v>0.43083327999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.15568687</v>
+      </c>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
         <v>0.41738125999999998</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>0.16177942000000001</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>39</v>
-      </c>
-      <c r="M44">
-        <v>0.43083327999999999</v>
-      </c>
-      <c r="N44">
-        <v>0.15568687</v>
-      </c>
-      <c r="O44">
-        <v>42</v>
       </c>
       <c r="P44">
         <v>0.79640995999999997</v>
@@ -8775,7 +8810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69">
       <c r="A45" s="1">
         <v>43516</v>
       </c>
@@ -8795,22 +8830,22 @@
         <v>17</v>
       </c>
       <c r="J45">
+        <v>0.55985432999999996</v>
+      </c>
+      <c r="K45">
+        <v>0.24350832</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
         <v>0.54329795000000003</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>0.25134665</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>16</v>
-      </c>
-      <c r="M45">
-        <v>0.55985432999999996</v>
-      </c>
-      <c r="N45">
-        <v>0.24350832</v>
-      </c>
-      <c r="O45">
-        <v>17</v>
       </c>
       <c r="Y45">
         <v>0.76710473999999995</v>
@@ -8867,7 +8902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69">
       <c r="A46" s="1">
         <v>43516</v>
       </c>
@@ -8887,22 +8922,22 @@
         <v>343</v>
       </c>
       <c r="J46">
+        <v>0.28690075999999998</v>
+      </c>
+      <c r="K46">
+        <v>7.3436639999999997E-2</v>
+      </c>
+      <c r="L46">
+        <v>208</v>
+      </c>
+      <c r="M46">
         <v>0.15998009999999999</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>7.7738710000000003E-2</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>183</v>
-      </c>
-      <c r="M46">
-        <v>0.28690075999999998</v>
-      </c>
-      <c r="N46">
-        <v>7.3436639999999997E-2</v>
-      </c>
-      <c r="O46">
-        <v>208</v>
       </c>
       <c r="P46">
         <v>0.11690765</v>
@@ -9067,7 +9102,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69">
       <c r="A47" s="1">
         <v>43516</v>
       </c>
@@ -9087,22 +9122,22 @@
         <v>9</v>
       </c>
       <c r="J47">
+        <v>-0.18800732000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.27717554999999999</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
         <v>0.21880411</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>0.25118634000000001</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>16</v>
-      </c>
-      <c r="M47">
-        <v>-0.18800732000000001</v>
-      </c>
-      <c r="N47">
-        <v>0.27717554999999999</v>
-      </c>
-      <c r="O47">
-        <v>13</v>
       </c>
       <c r="P47">
         <v>7.5768753999999994E-2</v>
@@ -9240,7 +9275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69">
       <c r="A48" s="1">
         <v>43516</v>
       </c>
@@ -9269,7 +9304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:69">
       <c r="A49" s="1">
         <v>43516</v>
       </c>
@@ -9289,19 +9324,19 @@
         <v>14</v>
       </c>
       <c r="J49">
-        <v>0.73246496999999999</v>
+        <v>0.80013089999999998</v>
       </c>
       <c r="K49">
-        <v>0.38026154000000001</v>
+        <v>0.38026282</v>
       </c>
       <c r="L49">
         <v>7</v>
       </c>
       <c r="M49">
-        <v>0.80013089999999998</v>
+        <v>0.73246496999999999</v>
       </c>
       <c r="N49">
-        <v>0.38026282</v>
+        <v>0.38026154000000001</v>
       </c>
       <c r="O49">
         <v>7</v>
@@ -9388,7 +9423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:69">
       <c r="A50" s="1">
         <v>43516</v>
       </c>
@@ -9426,7 +9461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:69">
       <c r="A51" s="1">
         <v>43516</v>
       </c>
@@ -9509,7 +9544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:69">
       <c r="A52" s="1">
         <v>43516</v>
       </c>
@@ -9529,22 +9564,22 @@
         <v>249</v>
       </c>
       <c r="J52">
+        <v>0.37450713000000002</v>
+      </c>
+      <c r="K52">
+        <v>8.7473526999999995E-2</v>
+      </c>
+      <c r="L52">
+        <v>143</v>
+      </c>
+      <c r="M52">
         <v>0.11209156000000001</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>9.5867894999999995E-2</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>116</v>
-      </c>
-      <c r="M52">
-        <v>0.37450713000000002</v>
-      </c>
-      <c r="N52">
-        <v>8.7473526999999995E-2</v>
-      </c>
-      <c r="O52">
-        <v>143</v>
       </c>
       <c r="P52">
         <v>8.8898398000000003E-2</v>
@@ -9709,7 +9744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:69">
       <c r="A53" s="1">
         <v>43516</v>
       </c>
@@ -9729,22 +9764,22 @@
         <v>137</v>
       </c>
       <c r="J53">
+        <v>0.38334993000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.11446319000000001</v>
+      </c>
+      <c r="L53">
+        <v>80</v>
+      </c>
+      <c r="M53">
         <v>-6.3405603000000005E-2</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>0.14322410999999999</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>50</v>
-      </c>
-      <c r="M53">
-        <v>0.38334993000000001</v>
-      </c>
-      <c r="N53">
-        <v>0.11446319000000001</v>
-      </c>
-      <c r="O53">
-        <v>80</v>
       </c>
       <c r="P53">
         <v>0.15837262999999999</v>
@@ -9909,7 +9944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:69">
       <c r="A54" s="1">
         <v>43516</v>
       </c>
@@ -9929,22 +9964,22 @@
         <v>40</v>
       </c>
       <c r="J54">
+        <v>0.16706008</v>
+      </c>
+      <c r="K54">
+        <v>0.24442169</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
+      </c>
+      <c r="M54">
         <v>0.21734682</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>0.22583935999999999</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>20</v>
-      </c>
-      <c r="M54">
-        <v>0.16706008</v>
-      </c>
-      <c r="N54">
-        <v>0.24442169</v>
-      </c>
-      <c r="O54">
-        <v>17</v>
       </c>
       <c r="P54">
         <v>0.34806046000000002</v>
@@ -10109,7 +10144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:69">
       <c r="A55" s="1">
         <v>43516</v>
       </c>
@@ -10228,7 +10263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:69">
       <c r="A56" s="1">
         <v>43516</v>
       </c>
@@ -10247,13 +10282,13 @@
       <c r="F56">
         <v>8</v>
       </c>
-      <c r="M56">
+      <c r="J56">
         <v>0.34744396999999999</v>
       </c>
-      <c r="N56">
+      <c r="K56">
         <v>0.41058823</v>
       </c>
-      <c r="O56">
+      <c r="L56">
         <v>6</v>
       </c>
       <c r="AB56">
@@ -10329,7 +10364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:69">
       <c r="A57" s="1">
         <v>43516</v>
       </c>
@@ -10349,22 +10384,22 @@
         <v>35</v>
       </c>
       <c r="J57">
+        <v>0.16538923999999999</v>
+      </c>
+      <c r="K57">
+        <v>0.21458406999999999</v>
+      </c>
+      <c r="L57">
+        <v>22</v>
+      </c>
+      <c r="M57">
         <v>0.17014603</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>0.23719044</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>19</v>
-      </c>
-      <c r="M57">
-        <v>0.16538923999999999</v>
-      </c>
-      <c r="N57">
-        <v>0.21458406999999999</v>
-      </c>
-      <c r="O57">
-        <v>22</v>
       </c>
       <c r="V57">
         <v>0.19186269</v>
@@ -10493,7 +10528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:69">
       <c r="A58" s="1">
         <v>43516</v>
       </c>
@@ -10513,22 +10548,22 @@
         <v>103</v>
       </c>
       <c r="J58">
+        <v>0.32544202</v>
+      </c>
+      <c r="K58">
+        <v>0.18685055</v>
+      </c>
+      <c r="L58">
+        <v>30</v>
+      </c>
+      <c r="M58">
         <v>0.15802045000000001</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>0.20925942</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>23</v>
-      </c>
-      <c r="M58">
-        <v>0.32544202</v>
-      </c>
-      <c r="N58">
-        <v>0.18685055</v>
-      </c>
-      <c r="O58">
-        <v>30</v>
       </c>
       <c r="P58">
         <v>0.22562853999999999</v>
@@ -10675,7 +10710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:69">
       <c r="A59" s="1">
         <v>43516</v>
       </c>
@@ -10695,22 +10730,22 @@
         <v>12</v>
       </c>
       <c r="J59">
+        <v>0.41920981000000002</v>
+      </c>
+      <c r="K59">
+        <v>0.22466421</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
+      </c>
+      <c r="M59">
         <v>0.19965667000000001</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>0.25079358000000002</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>16</v>
-      </c>
-      <c r="M59">
-        <v>0.41920981000000002</v>
-      </c>
-      <c r="N59">
-        <v>0.22466421</v>
-      </c>
-      <c r="O59">
-        <v>20</v>
       </c>
       <c r="P59">
         <v>0.28972315999999998</v>
@@ -10857,7 +10892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:69">
       <c r="A60" s="1">
         <v>43516</v>
       </c>
@@ -10876,13 +10911,13 @@
       <c r="F60">
         <v>10</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>0.54996455</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>0.44728801000000001</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>5</v>
       </c>
       <c r="AB60">
@@ -10967,7 +11002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:69">
       <c r="A61" s="1">
         <v>43516</v>
       </c>
@@ -10986,13 +11021,13 @@
       <c r="F61">
         <v>6</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>0.78324336000000006</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>0.40877137000000002</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>6</v>
       </c>
       <c r="AN61">
@@ -11023,7 +11058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:69">
       <c r="A62" s="1">
         <v>43516</v>
       </c>
@@ -11034,7 +11069,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:69">
       <c r="A63" s="1">
         <v>43516</v>
       </c>
@@ -11144,7 +11179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:69">
       <c r="A64" s="1">
         <v>43516</v>
       </c>
@@ -11164,22 +11199,22 @@
         <v>10</v>
       </c>
       <c r="J64">
+        <v>0.24626906000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.30224805999999999</v>
+      </c>
+      <c r="L64">
+        <v>11</v>
+      </c>
+      <c r="M64">
         <v>0.52829342999999995</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>0.21358727999999999</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>22</v>
-      </c>
-      <c r="M64">
-        <v>0.24626906000000001</v>
-      </c>
-      <c r="N64">
-        <v>0.30224805999999999</v>
-      </c>
-      <c r="O64">
-        <v>11</v>
       </c>
       <c r="AB64">
         <v>0.15364987999999999</v>
@@ -11245,7 +11280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:69">
       <c r="A65" s="1">
         <v>43516</v>
       </c>
@@ -11256,7 +11291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:69">
       <c r="A66" s="1">
         <v>43516</v>
       </c>
@@ -11294,7 +11329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:69">
       <c r="A67" s="1">
         <v>43516</v>
       </c>
@@ -11323,7 +11358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:69">
       <c r="A68" s="1">
         <v>43516</v>
       </c>
@@ -11379,7 +11414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:69">
       <c r="A69" s="1">
         <v>43516</v>
       </c>
@@ -11408,7 +11443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:69">
       <c r="A70" s="1">
         <v>43516</v>
       </c>
@@ -11446,7 +11481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:69">
       <c r="A71" s="1">
         <v>43516</v>
       </c>
@@ -11457,7 +11492,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:69">
       <c r="A72" s="1">
         <v>43516</v>
       </c>
@@ -11477,22 +11512,22 @@
         <v>14</v>
       </c>
       <c r="J72">
+        <v>0.49151077999999998</v>
+      </c>
+      <c r="K72">
+        <v>0.31760073</v>
+      </c>
+      <c r="L72">
+        <v>10</v>
+      </c>
+      <c r="M72">
         <v>0.30015703999999999</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>0.27773699000000002</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>13</v>
-      </c>
-      <c r="M72">
-        <v>0.49151077999999998</v>
-      </c>
-      <c r="N72">
-        <v>0.31760073</v>
-      </c>
-      <c r="O72">
-        <v>10</v>
       </c>
       <c r="AN72">
         <v>0.22675903</v>
@@ -11540,7 +11575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:69">
       <c r="A73" s="1">
         <v>43516</v>
       </c>
@@ -11559,13 +11594,13 @@
       <c r="F73">
         <v>16</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>0.58537220999999995</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>0.27792465999999999</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>13</v>
       </c>
       <c r="P73">
@@ -11704,7 +11739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:69">
       <c r="A74" s="1">
         <v>43516</v>
       </c>
@@ -11723,13 +11758,13 @@
       <c r="F74">
         <v>11</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>0.15919954</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>0.33444223000000001</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>9</v>
       </c>
       <c r="P74">
@@ -11868,7 +11903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:69">
       <c r="A75" s="1">
         <v>43516</v>
       </c>
@@ -11906,7 +11941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:69">
       <c r="A76" s="1">
         <v>43516</v>
       </c>
@@ -11917,7 +11952,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:69">
       <c r="A77" s="1">
         <v>43516</v>
       </c>
@@ -11937,7 +11972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:69">
       <c r="A78" s="1">
         <v>43516</v>
       </c>
@@ -12011,7 +12046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:69">
       <c r="A79" s="1">
         <v>43516</v>
       </c>
@@ -12067,7 +12102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:69">
       <c r="A80" s="1">
         <v>43516</v>
       </c>
@@ -12078,7 +12113,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:69">
       <c r="A81" s="1">
         <v>43516</v>
       </c>
@@ -12089,7 +12124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:69">
       <c r="A82" s="1">
         <v>43516</v>
       </c>
@@ -12108,13 +12143,13 @@
       <c r="F82">
         <v>9</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>0.74593865999999998</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>0.35424843</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <v>8</v>
       </c>
       <c r="AB82">
@@ -12244,7 +12279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:69">
       <c r="A83" s="1">
         <v>43516</v>
       </c>
@@ -12264,7 +12299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:69">
       <c r="A84" s="1">
         <v>43516</v>
       </c>
@@ -12275,7 +12310,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:69">
       <c r="A85" s="1">
         <v>43516</v>
       </c>
@@ -12295,22 +12330,22 @@
         <v>27</v>
       </c>
       <c r="J85">
+        <v>0.37814045000000002</v>
+      </c>
+      <c r="K85">
+        <v>0.21916129000000001</v>
+      </c>
+      <c r="L85">
+        <v>21</v>
+      </c>
+      <c r="M85">
         <v>0.37201148000000001</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>0.19326473999999999</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>27</v>
-      </c>
-      <c r="M85">
-        <v>0.37814045000000002</v>
-      </c>
-      <c r="N85">
-        <v>0.21916129000000001</v>
-      </c>
-      <c r="O85">
-        <v>21</v>
       </c>
       <c r="P85">
         <v>-9.9458939999999996E-2</v>
@@ -12466,7 +12501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:69">
       <c r="A86" s="1">
         <v>43516</v>
       </c>
@@ -12486,22 +12521,22 @@
         <v>20</v>
       </c>
       <c r="J86">
+        <v>9.0857684999999994E-2</v>
+      </c>
+      <c r="K86">
+        <v>0.30219400000000002</v>
+      </c>
+      <c r="L86">
+        <v>11</v>
+      </c>
+      <c r="M86">
         <v>0.47720897000000001</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>0.20083812000000001</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>25</v>
-      </c>
-      <c r="M86">
-        <v>9.0857684999999994E-2</v>
-      </c>
-      <c r="N86">
-        <v>0.30219400000000002</v>
-      </c>
-      <c r="O86">
-        <v>11</v>
       </c>
       <c r="P86">
         <v>6.4641519999999994E-2</v>
@@ -12657,7 +12692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:69">
       <c r="A87" s="1">
         <v>43516</v>
       </c>
@@ -12677,22 +12712,22 @@
         <v>37</v>
       </c>
       <c r="J87">
+        <v>-7.8175172000000001E-2</v>
+      </c>
+      <c r="K87">
+        <v>0.25152627</v>
+      </c>
+      <c r="L87">
+        <v>16</v>
+      </c>
+      <c r="M87">
         <v>0.33711248999999999</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>0.18023144999999999</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>31</v>
-      </c>
-      <c r="M87">
-        <v>-7.8175172000000001E-2</v>
-      </c>
-      <c r="N87">
-        <v>0.25152627</v>
-      </c>
-      <c r="O87">
-        <v>16</v>
       </c>
       <c r="P87">
         <v>0.55501484999999995</v>
@@ -12839,7 +12874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:69">
       <c r="A88" s="1">
         <v>43516</v>
       </c>
@@ -12849,13 +12884,13 @@
       <c r="C88" t="s">
         <v>149</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>0.35423958</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>0.44762403000000001</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <v>5</v>
       </c>
       <c r="AB88">
@@ -12913,7 +12948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:69">
       <c r="A89" s="1">
         <v>43516</v>
       </c>
@@ -13005,7 +13040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:69">
       <c r="A90" s="1">
         <v>43516</v>
       </c>
@@ -13025,22 +13060,22 @@
         <v>9</v>
       </c>
       <c r="J90">
+        <v>0.31061229000000001</v>
+      </c>
+      <c r="K90">
+        <v>0.37798284999999998</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
         <v>0.36503667000000001</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>0.33424044000000003</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>9</v>
-      </c>
-      <c r="M90">
-        <v>0.31061229000000001</v>
-      </c>
-      <c r="N90">
-        <v>0.37798284999999998</v>
-      </c>
-      <c r="O90">
-        <v>7</v>
       </c>
       <c r="P90">
         <v>0.63867313000000003</v>
@@ -13178,7 +13213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:69">
       <c r="A91" s="1">
         <v>43516</v>
       </c>
@@ -13198,22 +13233,22 @@
         <v>80</v>
       </c>
       <c r="J91">
+        <v>0.19264366999999999</v>
+      </c>
+      <c r="K91">
+        <v>0.14445105</v>
+      </c>
+      <c r="L91">
+        <v>49</v>
+      </c>
+      <c r="M91">
         <v>0.42479919999999999</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>0.11223803</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>82</v>
-      </c>
-      <c r="M91">
-        <v>0.19264366999999999</v>
-      </c>
-      <c r="N91">
-        <v>0.14445105</v>
-      </c>
-      <c r="O91">
-        <v>49</v>
       </c>
       <c r="P91">
         <v>0.19687816999999999</v>
@@ -13378,7 +13413,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:69">
       <c r="A92" s="1">
         <v>43516</v>
       </c>
@@ -13398,22 +13433,22 @@
         <v>77</v>
       </c>
       <c r="J92">
+        <v>0.16737777000000001</v>
+      </c>
+      <c r="K92">
+        <v>5.9327050999999999E-2</v>
+      </c>
+      <c r="L92">
+        <v>327</v>
+      </c>
+      <c r="M92">
         <v>0.12298615</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>7.1102940000000003E-2</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>220</v>
-      </c>
-      <c r="M92">
-        <v>0.16737777000000001</v>
-      </c>
-      <c r="N92">
-        <v>5.9327050999999999E-2</v>
-      </c>
-      <c r="O92">
-        <v>327</v>
       </c>
       <c r="P92">
         <v>-2.5719190000000002E-3</v>
@@ -13578,7 +13613,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:69">
       <c r="A93" s="1">
         <v>43516</v>
       </c>
@@ -13598,22 +13633,22 @@
         <v>59</v>
       </c>
       <c r="J93">
+        <v>0.24954035999999999</v>
+      </c>
+      <c r="K93">
+        <v>7.7501133E-2</v>
+      </c>
+      <c r="L93">
+        <v>180</v>
+      </c>
+      <c r="M93">
         <v>0.17641814</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>9.2309967000000007E-2</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>123</v>
-      </c>
-      <c r="M93">
-        <v>0.24954035999999999</v>
-      </c>
-      <c r="N93">
-        <v>7.7501133E-2</v>
-      </c>
-      <c r="O93">
-        <v>180</v>
       </c>
       <c r="P93">
         <v>0.11477674</v>

--- a/Atlas application All heatmaps ver2/data/dataWomen.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataWomen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/c870b7ff5e4342f7969b500139a3da9c/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF90F0C-E078-574C-8F82-CAE82A47CFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1FB89-4EE2-1246-B9EE-DA9E385260E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15800" yWindow="500" windowWidth="17800" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_cox_all_women" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>date</t>
   </si>
@@ -31,478 +31,349 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>child_0_est</t>
+    <t>ASD</t>
   </si>
   <si>
-    <t>child_0_se</t>
+    <t>Any mental</t>
   </si>
   <si>
-    <t>child_0_n</t>
+    <t>Organic mental</t>
   </si>
   <si>
-    <t>child_1_est</t>
+    <t>Psychoactive sub use</t>
   </si>
   <si>
-    <t>child_1_se</t>
+    <t xml:space="preserve">Schizophrenia spectrum </t>
   </si>
   <si>
-    <t>child_1_n</t>
+    <t>Schizophrenia</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_est</t>
+    <t xml:space="preserve">Any mood </t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_se</t>
+    <t>Bipolar disorder</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_n</t>
+    <t>Depression</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_est</t>
+    <t>Neurotic/stress disorder</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_se</t>
+    <t>OCD</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_n</t>
+    <t>Behav synd-physiol</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_est</t>
+    <t>Anorexia nervosa</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_se</t>
+    <t>Adult personality disorder</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_n</t>
+    <t>Intellectual disability</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_est</t>
+    <t>Psych dev dis.not ASD</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_se</t>
+    <t>Behav dis-child onset</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_n</t>
+    <t>ADHD</t>
   </si>
   <si>
-    <t>m_est</t>
+    <t>Tic disorder</t>
   </si>
   <si>
-    <t>m_se</t>
+    <t>Mental-unspecified</t>
   </si>
   <si>
-    <t>m_n</t>
+    <t>Any diabetes</t>
   </si>
   <si>
-    <t>f_est</t>
+    <t>Diabetes outside preg</t>
   </si>
   <si>
-    <t>f_se</t>
+    <t>Type 1 diabetes</t>
   </si>
   <si>
-    <t>f_n</t>
+    <t>Type 2 diabetes</t>
   </si>
   <si>
-    <t>mm_est</t>
+    <t>Chronic+gest diab</t>
   </si>
   <si>
-    <t>mm_se</t>
+    <t>Obesity</t>
   </si>
   <si>
-    <t>mm_n</t>
+    <t>Any hypertension</t>
   </si>
   <si>
-    <t>mf_est</t>
+    <t>Hyper outside preg</t>
   </si>
   <si>
-    <t>mf_se</t>
+    <t>Chronic+gest hyper</t>
   </si>
   <si>
-    <t>mf_n</t>
+    <t>Preeclam/eclam</t>
   </si>
   <si>
-    <t>fm_est</t>
+    <t>Any birth defect</t>
   </si>
   <si>
-    <t>fm_se</t>
+    <t>CNS</t>
   </si>
   <si>
-    <t>fm_n</t>
+    <t>Eye</t>
   </si>
   <si>
-    <t>ff_est</t>
+    <t>Ear</t>
   </si>
   <si>
-    <t>ff_se</t>
+    <t>Heart</t>
   </si>
   <si>
-    <t>ff_n</t>
+    <t>Respiratory</t>
   </si>
   <si>
-    <t>mua_0_est</t>
+    <t>Lip</t>
   </si>
   <si>
-    <t>mua_0_se</t>
+    <t>Digestive system</t>
   </si>
   <si>
-    <t>mua_0_n</t>
+    <t>Genital</t>
   </si>
   <si>
-    <t>mua_1_est</t>
+    <t>Urinary tract</t>
   </si>
   <si>
-    <t>mua_1_se</t>
+    <t>Musculoskeletal</t>
   </si>
   <si>
-    <t>mua_1_n</t>
+    <t>Skin</t>
   </si>
   <si>
-    <t>pua_0_est</t>
+    <t>Other/chromos</t>
   </si>
   <si>
-    <t>pua_0_se</t>
+    <t>Chro/gene dis_ASD spe</t>
   </si>
   <si>
-    <t>pua_0_n</t>
+    <t>Any neurologic</t>
   </si>
   <si>
-    <t>pua_1_est</t>
+    <t>Inflammatory of CNS</t>
   </si>
   <si>
-    <t>pua_1_se</t>
+    <t>Systemic atrophies</t>
   </si>
   <si>
-    <t>pua_1_n</t>
+    <t>Extrapyramid</t>
   </si>
   <si>
-    <t>mcou_0_est</t>
+    <t xml:space="preserve">Other degenerative </t>
   </si>
   <si>
-    <t>mcou_0_se</t>
+    <t>Demyelinating of CNS</t>
   </si>
   <si>
-    <t>mcou_0_n</t>
+    <t>Episodic</t>
   </si>
   <si>
-    <t>mcou_1_est</t>
+    <t>Epilepsy</t>
   </si>
   <si>
-    <t>mcou_1_se</t>
+    <t>Nerve disorder</t>
   </si>
   <si>
-    <t>mcou_1_n</t>
+    <t>Polyneuropath</t>
   </si>
   <si>
-    <t>pcou_0_est</t>
+    <t xml:space="preserve">Myoneural </t>
   </si>
   <si>
-    <t>pcou_0_se</t>
+    <t xml:space="preserve">Cerebral palsy </t>
   </si>
   <si>
-    <t>pcou_0_n</t>
+    <t>Other neurologic</t>
   </si>
   <si>
-    <t>pcou_1_est</t>
+    <t>Thyrotoxicosis</t>
   </si>
   <si>
-    <t>pcou_1_se</t>
+    <t>Thyroiditis</t>
   </si>
   <si>
-    <t>pcou_1_n</t>
+    <t xml:space="preserve">Pri adrenocortical </t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Rheumatoid arthritis</t>
   </si>
   <si>
-    <t>mental</t>
+    <t>Juvenile arthritis</t>
   </si>
   <si>
-    <t>mental_organic</t>
+    <t>Dermatopolymyositis</t>
   </si>
   <si>
-    <t>mental_psychoactive</t>
+    <t>Polymyalgia</t>
   </si>
   <si>
-    <t>mental_schizo_spectrum</t>
+    <t>Scleroderma</t>
   </si>
   <si>
-    <t>mental_schizo</t>
+    <t>Lupus erythema</t>
   </si>
   <si>
-    <t>mental_mood</t>
+    <t>Sjogren</t>
   </si>
   <si>
-    <t>mental_mood_bipolar</t>
+    <t xml:space="preserve">Ankylos spondil </t>
   </si>
   <si>
-    <t>mental_mood_depression</t>
+    <t>Granulomato</t>
   </si>
   <si>
-    <t>mental_neurotic</t>
+    <t>Celiac</t>
   </si>
   <si>
-    <t>mental_neurotic_ocd</t>
+    <t>Crohn</t>
   </si>
   <si>
-    <t>mental_behavioral</t>
+    <t>Ulcerative colitis</t>
   </si>
   <si>
-    <t>mental_behavioral_anex</t>
+    <t>Pernicious anem</t>
   </si>
   <si>
-    <t>mental_adult</t>
+    <t>Hemolytic anem</t>
   </si>
   <si>
-    <t>mental_retardation</t>
+    <t>Purpura</t>
   </si>
   <si>
-    <t>mental_development</t>
+    <t>Multiple sclerosis</t>
   </si>
   <si>
-    <t>mental_emotional</t>
+    <t>Guillain-Bar</t>
   </si>
   <si>
-    <t>mental_emotional_adhd</t>
+    <t>Myasthen grav</t>
   </si>
   <si>
-    <t>mental_emotional_tic</t>
+    <t>Pemphigus</t>
   </si>
   <si>
-    <t>mental_unspecified</t>
+    <t>Psoriasis</t>
   </si>
   <si>
-    <t>cm_diabetes</t>
+    <t>Alopecia areata</t>
   </si>
   <si>
-    <t>cm_doutpreg</t>
+    <t>Vitiligo</t>
   </si>
   <si>
-    <t>cm_t1d</t>
+    <t xml:space="preserve">Any endocrine </t>
   </si>
   <si>
-    <t>cm_t2d</t>
+    <t>Any connective</t>
   </si>
   <si>
-    <t>cm_dinpreg</t>
+    <t>Any gastrointest</t>
   </si>
   <si>
-    <t>cm_obesity</t>
+    <t>Any blood</t>
   </si>
   <si>
-    <t>cm_hypertension</t>
+    <t>Any nervous</t>
   </si>
   <si>
-    <t>cm_hypoutpred</t>
+    <t>Any skin</t>
   </si>
   <si>
-    <t>cm_hypinpred</t>
+    <t>Any autoimmune</t>
   </si>
   <si>
-    <t>cm_preeclampsia</t>
+    <t>Asthma</t>
   </si>
   <si>
-    <t>bd</t>
+    <t>Allergies</t>
   </si>
   <si>
-    <t>bd_cns</t>
+    <t>Index child (f) log(HR)</t>
   </si>
   <si>
-    <t>bd_eye</t>
+    <t>SE</t>
   </si>
   <si>
-    <t>bd_ear</t>
+    <t>n</t>
   </si>
   <si>
-    <t>bd_heart</t>
+    <t>Index child (m) log(HR)</t>
   </si>
   <si>
-    <t>bd_respiratory</t>
+    <t>Brother log(HR)</t>
   </si>
   <si>
-    <t>bd_lip</t>
+    <t>Sister log(HR)</t>
   </si>
   <si>
-    <t>bd_digestive</t>
+    <t>Mat. half sister log(HR)</t>
   </si>
   <si>
-    <t>bd_genital</t>
+    <t>Pat. half sister log(HR)</t>
   </si>
   <si>
-    <t>bd_urinary</t>
+    <t>Mat. half brother log(HR)</t>
   </si>
   <si>
-    <t>bd_musculoskeletal</t>
+    <t>Pat. half brother log(HR)</t>
   </si>
   <si>
-    <t>bd_skin</t>
+    <t>Mother log(HR)</t>
   </si>
   <si>
-    <t>bd_other</t>
+    <t>Father log(HR)</t>
   </si>
   <si>
-    <t>bd_asdspecific</t>
+    <t>Mat. grandmother log(HR)</t>
   </si>
   <si>
-    <t>ne</t>
+    <t>Mat. grandfather log(HR)</t>
   </si>
   <si>
-    <t>ne_inflammatory</t>
+    <t>Pat. grandmother log(HR)</t>
   </si>
   <si>
-    <t>ne_systemic</t>
+    <t>Pat. grandfather log(HR)</t>
   </si>
   <si>
-    <t>ne_extrapyramid</t>
+    <t>Mat. aunt log(HR)</t>
   </si>
   <si>
-    <t>ne_otherdegene</t>
+    <t>Mat. uncle log(HR)</t>
   </si>
   <si>
-    <t>ne_demyelinating</t>
+    <t>Pat. aunt log(HR)</t>
   </si>
   <si>
-    <t>ne_episodic</t>
+    <t>Pat. uncle log(HR)</t>
   </si>
   <si>
-    <t>ne_episodic_epilep</t>
+    <t>Mat. cousin (f) log(HR)</t>
   </si>
   <si>
-    <t>ne_nerve</t>
+    <t>Mat. cousin (m) log(HR)</t>
   </si>
   <si>
-    <t>ne_polynepathi</t>
+    <t>Pat. cousin (f) log(HR)</t>
   </si>
   <si>
-    <t>ne_myoneural</t>
-  </si>
-  <si>
-    <t>ne_cerebralpal</t>
-  </si>
-  <si>
-    <t>ne_other</t>
-  </si>
-  <si>
-    <t>ai_t1d</t>
-  </si>
-  <si>
-    <t>ai_thyrotoxico</t>
-  </si>
-  <si>
-    <t>ai_thyroiditis</t>
-  </si>
-  <si>
-    <t>ai_adrenocortical</t>
-  </si>
-  <si>
-    <t>ai_rheumatoid</t>
-  </si>
-  <si>
-    <t>ai_juvenile</t>
-  </si>
-  <si>
-    <t>ai_dermatopolymyo</t>
-  </si>
-  <si>
-    <t>ai_polymyalgia</t>
-  </si>
-  <si>
-    <t>ai_scleroderma</t>
-  </si>
-  <si>
-    <t>ai_erythemato</t>
-  </si>
-  <si>
-    <t>ai_sjogren</t>
-  </si>
-  <si>
-    <t>ai_spondili</t>
-  </si>
-  <si>
-    <t>ai_granulomato</t>
-  </si>
-  <si>
-    <t>ai_celiac</t>
-  </si>
-  <si>
-    <t>ai_crohn</t>
-  </si>
-  <si>
-    <t>ai_colitis</t>
-  </si>
-  <si>
-    <t>ai_pernicious</t>
-  </si>
-  <si>
-    <t>ai_hemolytic</t>
-  </si>
-  <si>
-    <t>ai_purpura</t>
-  </si>
-  <si>
-    <t>ai_sclerosis</t>
-  </si>
-  <si>
-    <t>ai_guillainbar</t>
-  </si>
-  <si>
-    <t>ai_gravis</t>
-  </si>
-  <si>
-    <t>ai_pemphigus</t>
-  </si>
-  <si>
-    <t>ai_psoriasis</t>
-  </si>
-  <si>
-    <t>ai_areata</t>
-  </si>
-  <si>
-    <t>ai_vitiligo</t>
-  </si>
-  <si>
-    <t>ai_endocrine</t>
-  </si>
-  <si>
-    <t>ai_connective</t>
-  </si>
-  <si>
-    <t>ai_gastrointest</t>
-  </si>
-  <si>
-    <t>ai_blood</t>
-  </si>
-  <si>
-    <t>ai_nervous</t>
-  </si>
-  <si>
-    <t>ai_skin</t>
-  </si>
-  <si>
-    <t>autoimmune</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>allergies</t>
-  </si>
-  <si>
-    <t>sib1_sex0_est</t>
-  </si>
-  <si>
-    <t>sib1_sex0_se</t>
-  </si>
-  <si>
-    <t>sib1_sex0_n</t>
-  </si>
-  <si>
-    <t>sib1_sex1_est</t>
-  </si>
-  <si>
-    <t>sib1_sex1_se</t>
-  </si>
-  <si>
-    <t>sib1_sex1_n</t>
+    <t>Pat. cousin (m) log(HR)</t>
   </si>
 </sst>
 </file>
@@ -987,10 +858,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1372,13 +1246,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" ht="64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,203 +1262,203 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>62</v>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:69">
@@ -1595,7 +1469,7 @@
         <v>0.6969212962962964</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>2.0588818</v>
@@ -1723,7 +1597,7 @@
         <v>0.7073842592592593</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1.2505864</v>
@@ -1914,7 +1788,7 @@
         <v>0.71937499999999999</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2.8617669999999999</v>
@@ -2069,7 +1943,7 @@
         <v>0.73021990740740739</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0.96715680000000004</v>
@@ -2269,7 +2143,7 @@
         <v>0.74178240740740742</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2.0236990000000001</v>
@@ -2469,7 +2343,7 @@
         <v>0.75296296296296295</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2.0687120000000001</v>
@@ -2669,7 +2543,7 @@
         <v>0.76440972222222225</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1.2096819999999999</v>
@@ -2869,7 +2743,7 @@
         <v>0.77643518518518517</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1.541582</v>
@@ -3015,7 +2889,7 @@
         <v>0.7869560185185186</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1.158258</v>
@@ -3215,7 +3089,7 @@
         <v>0.79843750000000002</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1.43136</v>
@@ -3415,7 +3289,7 @@
         <v>0.80960648148148151</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1.60389</v>
@@ -3525,7 +3399,7 @@
         <v>0.81900462962962972</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1.099861</v>
@@ -3662,7 +3536,7 @@
         <v>0.8287268518518518</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1.1046130000000001</v>
@@ -3745,7 +3619,7 @@
         <v>0.83694444444444438</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1.026238</v>
@@ -3945,7 +3819,7 @@
         <v>0.84909722222222228</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>2.9540449999999998</v>
@@ -4145,7 +4019,7 @@
         <v>0.86134259259259249</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2.6131700000000002</v>
@@ -4300,7 +4174,7 @@
         <v>0.87203703703703705</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2.1329020000000001</v>
@@ -4482,7 +4356,7 @@
         <v>0.88353009259259263</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>2.0465360000000001</v>
@@ -4619,7 +4493,7 @@
         <v>0.89369212962962974</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>2.6136529999999998</v>
@@ -4684,7 +4558,7 @@
         <v>0.90201388888888889</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1.3875120000000001</v>
@@ -4875,7 +4749,7 @@
         <v>0.9130787037037037</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0.1025763</v>
@@ -5075,7 +4949,7 @@
         <v>0.92526620370370372</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0.51277170000000005</v>
@@ -5275,7 +5149,7 @@
         <v>0.93682870370370364</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>6.7299300000000006E-2</v>
@@ -5457,7 +5331,7 @@
         <v>0.94766203703703711</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>1.5126820000000001</v>
@@ -5612,7 +5486,7 @@
         <v>0.95856481481481481</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>-0.59259740000000005</v>
@@ -5731,7 +5605,7 @@
         <v>0.96820601851851851</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>-8.0984000000000004E-3</v>
@@ -5931,7 +5805,7 @@
         <v>0.97973379629629631</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>-0.2243549</v>
@@ -6122,7 +5996,7 @@
         <v>0.99129629629629623</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>0.72412600000000005</v>
@@ -6313,7 +6187,7 @@
         <v>2.5578703703703705E-3</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>-0.81699739999999998</v>
@@ -6432,7 +6306,7 @@
         <v>1.1458333333333334E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>-0.71309429999999996</v>
@@ -6551,7 +6425,7 @@
         <v>2.0879629629629626E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>0.41801369999999999</v>
@@ -6751,7 +6625,7 @@
         <v>3.24537037037037E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>1.305412</v>
@@ -6879,7 +6753,7 @@
         <v>4.2337962962962966E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>0.89442880000000002</v>
@@ -7034,7 +6908,7 @@
         <v>5.3425925925925925E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>-6.6016199999999997E-2</v>
@@ -7234,7 +7108,7 @@
         <v>6.4953703703703694E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0.49907390000000001</v>
@@ -7434,7 +7308,7 @@
         <v>7.6701388888888888E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>0.34105054000000001</v>
@@ -7598,7 +7472,7 @@
         <v>8.7789351851851841E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>0.18168917000000001</v>
@@ -7708,7 +7582,7 @@
         <v>9.734953703703704E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>0.75539730000000005</v>
@@ -7899,7 +7773,7 @@
         <v>0.11006944444444444</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>0.54042570000000001</v>
@@ -8090,7 +7964,7 @@
         <v>0.12325231481481481</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>0.37436049999999998</v>
@@ -8281,7 +8155,7 @@
         <v>0.13693287037037036</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0.60199610000000003</v>
@@ -8481,7 +8355,7 @@
         <v>0.15063657407407408</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>2.72261E-2</v>
@@ -8654,7 +8528,7 @@
         <v>0.16136574074074075</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>1.828991</v>
@@ -8818,7 +8692,7 @@
         <v>0.1723611111111111</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>1.7307980000000001</v>
@@ -8910,7 +8784,7 @@
         <v>0.18130787037037036</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="D46">
         <v>0.79149539999999996</v>
@@ -9110,7 +8984,7 @@
         <v>0.19289351851851852</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>0.35926409999999998</v>
@@ -9283,7 +9157,7 @@
         <v>0.20468749999999999</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="AK48">
         <v>0.29492923999999998</v>
@@ -9312,7 +9186,7 @@
         <v>0.21065972222222221</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>1.2150879999999999</v>
@@ -9431,7 +9305,7 @@
         <v>0.22018518518518518</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="AK50">
         <v>0.19466180999999999</v>
@@ -9469,7 +9343,7 @@
         <v>0.22696759259259258</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="AB51">
         <v>0.57255374999999997</v>
@@ -9552,7 +9426,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>0.87434460000000003</v>
@@ -9752,7 +9626,7 @@
         <v>0.2465509259259259</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>1.6616280000000001</v>
@@ -9952,7 +9826,7 @@
         <v>0.25787037037037036</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>0.191943</v>
@@ -10152,7 +10026,7 @@
         <v>0.2694212962962963</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>1.210412</v>
@@ -10271,7 +10145,7 @@
         <v>0.28002314814814816</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>1.1502079999999999</v>
@@ -10372,7 +10246,7 @@
         <v>0.28954861111111113</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>2.059815</v>
@@ -10536,7 +10410,7 @@
         <v>0.30083333333333334</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>1.156542</v>
@@ -10718,7 +10592,7 @@
         <v>0.31236111111111114</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <v>6.7299300000000006E-2</v>
@@ -10900,7 +10774,7 @@
         <v>0.32363425925925926</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>0.73438099999999995</v>
@@ -11010,7 +10884,7 @@
         <v>0.33283564814814814</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>7.3315699999999998E-2</v>
@@ -11066,7 +10940,7 @@
         <v>0.34046296296296297</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:69">
@@ -11077,7 +10951,7 @@
         <v>0.34697916666666667</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>0.59552539999999998</v>
@@ -11187,7 +11061,7 @@
         <v>0.35620370370370374</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>5.3149200000000001E-2</v>
@@ -11288,7 +11162,7 @@
         <v>0.3656712962962963</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:69">
@@ -11299,7 +11173,7 @@
         <v>0.37253472222222223</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AH66">
         <v>-7.2008139999999998E-2</v>
@@ -11337,7 +11211,7 @@
         <v>0.37957175925925929</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="AH67">
         <v>0.42992597999999999</v>
@@ -11366,7 +11240,7 @@
         <v>0.38576388888888885</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="AH68">
         <v>0.1700972</v>
@@ -11422,7 +11296,7 @@
         <v>0.39343750000000005</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="AH69">
         <v>-0.24376148</v>
@@ -11451,7 +11325,7 @@
         <v>0.39952546296296299</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AE70">
         <v>0.14638408</v>
@@ -11489,7 +11363,7 @@
         <v>0.40564814814814815</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:69">
@@ -11500,7 +11374,7 @@
         <v>0.41166666666666668</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D72">
         <v>0.28272209999999998</v>
@@ -11583,7 +11457,7 @@
         <v>0.4199074074074074</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D73">
         <v>4.32863E-2</v>
@@ -11747,7 +11621,7 @@
         <v>0.43027777777777776</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D74">
         <v>-0.37050759999999999</v>
@@ -11911,7 +11785,7 @@
         <v>0.44064814814814812</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AB75">
         <v>2.0248065</v>
@@ -11949,7 +11823,7 @@
         <v>0.4475925925925926</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:69">
@@ -11960,7 +11834,7 @@
         <v>0.45309027777777783</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="BL77">
         <v>1.5188675E-2</v>
@@ -11980,7 +11854,7 @@
         <v>0.45917824074074076</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AB78">
         <v>0.58085471</v>
@@ -12054,7 +11928,7 @@
         <v>0.46770833333333334</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AH79">
         <v>-0.10717297000000001</v>
@@ -12110,7 +11984,7 @@
         <v>0.47716435185185185</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:69">
@@ -12121,7 +11995,7 @@
         <v>0.48451388888888891</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:69">
@@ -12132,7 +12006,7 @@
         <v>0.49258101851851849</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="D82">
         <v>0.30752040000000003</v>
@@ -12287,7 +12161,7 @@
         <v>0.50535879629629632</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="BI83">
         <v>1.1197994</v>
@@ -12307,7 +12181,7 @@
         <v>0.51392361111111107</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:69">
@@ -12318,7 +12192,7 @@
         <v>0.51957175925925925</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D85">
         <v>0.2238763</v>
@@ -12509,7 +12383,7 @@
         <v>0.53041666666666665</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="D86">
         <v>0.34263009999999999</v>
@@ -12700,7 +12574,7 @@
         <v>0.5413310185185185</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D87">
         <v>-1.4996000000000001E-2</v>
@@ -12882,7 +12756,7 @@
         <v>0.55196759259259254</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="M88">
         <v>0.35423958</v>
@@ -12956,7 +12830,7 @@
         <v>0.56018518518518523</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="AB89">
         <v>0.51103788999999999</v>
@@ -13048,7 +12922,7 @@
         <v>0.56819444444444445</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="D90">
         <v>1.58037E-2</v>
@@ -13221,7 +13095,7 @@
         <v>0.58011574074074079</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D91">
         <v>0.23057639999999999</v>
@@ -13421,7 +13295,7 @@
         <v>0.5930671296296296</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <v>-8.9832099999999998E-2</v>
@@ -13621,7 +13495,7 @@
         <v>0.60793981481481485</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>-0.12716040000000001</v>
